--- a/static/uploads/course_template.xlsx
+++ b/static/uploads/course_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohtad Ahmed Saeem\Downloads\Movies\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{900C7B2A-55A1-4D52-9611-57D39B07DCD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAB2EFFF-AC37-48D8-8837-A727799E6BA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="23">
   <si>
     <t>EEE-201</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>Department</t>
+  </si>
+  <si>
+    <t>Course Type</t>
+  </si>
+  <si>
+    <t>Theory</t>
   </si>
 </sst>
 </file>
@@ -432,22 +438,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="24.77734375" customWidth="1"/>
     <col min="2" max="2" width="19.88671875" customWidth="1"/>
-    <col min="3" max="3" width="16.44140625" customWidth="1"/>
-    <col min="4" max="4" width="15.109375" style="1" customWidth="1"/>
+    <col min="3" max="4" width="16.44140625" customWidth="1"/>
     <col min="5" max="5" width="23.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>16</v>
       </c>
@@ -457,14 +463,17 @@
       <c r="C1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>19</v>
+      <c r="D1" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="F1" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -474,14 +483,17 @@
       <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -491,14 +503,17 @@
       <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -508,14 +523,17 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -525,14 +543,17 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -542,14 +563,17 @@
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E6" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -559,14 +583,17 @@
       <c r="C7">
         <v>3</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -576,11 +603,14 @@
       <c r="C8">
         <v>3</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
